--- a/DetectorNumeros/patrones/num8.xlsx
+++ b/DetectorNumeros/patrones/num8.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guere\Documents\Tec\7mo\IA\Programas 2do Parcial\DetectorNumeros\patrones\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70027142-932E-40B4-8BF5-99253C226C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,2429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>7</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <v>8</v>
+      </c>
+      <c r="V4">
+        <v>8</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>7</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>7</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>9</v>
+      </c>
+      <c r="P13">
+        <v>9</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>9</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13">
+        <v>8</v>
+      </c>
+      <c r="U13">
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="T14">
+        <v>8</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>9</v>
+      </c>
+      <c r="U16">
+        <v>7</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>7</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18">
+        <v>7</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>6</v>
+      </c>
+      <c r="V19">
+        <v>7</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>6</v>
+      </c>
+      <c r="V20">
+        <v>7</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>6</v>
+      </c>
+      <c r="V21">
+        <v>7</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>6</v>
+      </c>
+      <c r="V22">
+        <v>7</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>6</v>
+      </c>
+      <c r="V23">
+        <v>7</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>7</v>
+      </c>
+      <c r="V24">
+        <v>7</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>8</v>
+      </c>
+      <c r="U25">
+        <v>8</v>
+      </c>
+      <c r="V25">
+        <v>8</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+      <c r="R26">
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26">
+        <v>7</v>
+      </c>
+      <c r="U26">
+        <v>7</v>
+      </c>
+      <c r="V26">
+        <v>6</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>